--- a/experiments/results/schema_experiments.xlsx
+++ b/experiments/results/schema_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D520B38-30EB-495E-BFB0-265055512E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1882671-6ECC-46F7-832E-F7C1FD9A9B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="1830" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,12 +534,6 @@
 }</t>
   </si>
   <si>
-    <t>schema_predicates</t>
-  </si>
-  <si>
-    <t>schema_concise</t>
-  </si>
-  <si>
     <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
@@ -683,9 +677,6 @@
 }</t>
   </si>
   <si>
-    <t>schema_objects</t>
-  </si>
-  <si>
     <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
@@ -802,9 +793,6 @@
   }
 }
 ORDER BY ?studyLabel</t>
-  </si>
-  <si>
-    <t>schema_instances</t>
   </si>
   <si>
     <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
@@ -992,6 +980,18 @@
     FILTER (CONTAINS(LCASE(?condition), "congestive heart failure"))
   }
 }</t>
+  </si>
+  <si>
+    <t>schema_p</t>
+  </si>
+  <si>
+    <t>schema_p_filtered</t>
+  </si>
+  <si>
+    <t>schema_po_filtered</t>
+  </si>
+  <si>
+    <t>schema_poi_filtered</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,7 +1324,7 @@
     <col min="3" max="3" width="24.26953125" customWidth="1"/>
     <col min="4" max="4" width="18.453125" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1339,16 +1339,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -1365,13 +1365,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -1388,13 +1388,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -1411,13 +1411,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -1434,13 +1434,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -1457,16 +1457,17 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>